--- a/database/sidis/expdata/3040.xlsx
+++ b/database/sidis/expdata/3040.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/files_HEPdata 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Liu/Repos/fitpack/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A9293B0-5B40-EF4B-879F-44E33FFDFD3A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6C3B0B-5AE9-754B-B4B6-B93BED77C5A5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="960" windowWidth="27700" windowHeight="15840" xr2:uid="{2745598D-109D-4640-93C9-77D1CFA7D82E}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{2C5515C1-B3FE-F045-B109-31FBACEC49D4}" name="Zgt01_n_pt_Col" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Zgt01_n_pt_Col" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="10008" sourceFile="/Users/user/Downloads/files_HEPdata 2/Zgt01_n_pt_Col.dat" consecutive="1">
       <textFields count="10">
         <textField/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>systabs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hadron</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +132,10 @@
   </si>
   <si>
     <t>PT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systabs_u</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Zgt01_n_pt_Col" connectionId="1" xr16:uid="{B31707AD-087D-DB49-B2CC-EB05BF0279DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Zgt01_n_pt_Col" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,7 +507,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -551,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -563,19 +563,19 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -604,7 +604,7 @@
         <v>1.93</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>4.0000000000000001E-3</v>
@@ -619,16 +619,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -657,7 +657,7 @@
         <v>1.93</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3">
         <v>4.0000000000000001E-3</v>
@@ -672,16 +672,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -710,7 +710,7 @@
         <v>1.94</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4">
         <v>1.2999999999999999E-2</v>
@@ -725,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -763,7 +763,7 @@
         <v>1.94</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>0.01</v>
@@ -778,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -816,7 +816,7 @@
         <v>1.96</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>1.2999999999999999E-2</v>
@@ -831,16 +831,16 @@
         <v>4.5825756949558379E-3</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -869,7 +869,7 @@
         <v>4.96</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7">
         <v>8.0000000000000002E-3</v>
@@ -884,16 +884,16 @@
         <v>4.1231056256176594E-3</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -922,7 +922,7 @@
         <v>4.96</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8">
         <v>1.7999999999999999E-2</v>
@@ -937,16 +937,16 @@
         <v>4.1231056256176594E-3</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -975,7 +975,7 @@
         <v>4.96</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>1.9E-2</v>
@@ -990,16 +990,16 @@
         <v>4.5825756949558379E-3</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1028,7 +1028,7 @@
         <v>4.96</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>2.4E-2</v>
@@ -1043,16 +1043,16 @@
         <v>8.485281374238568E-3</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1081,7 +1081,7 @@
         <v>4.96</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11">
         <v>0.04</v>
@@ -1096,16 +1096,16 @@
         <v>1.2369316876852979E-2</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1134,7 +1134,7 @@
         <v>9.31</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>1.9E-2</v>
@@ -1149,16 +1149,16 @@
         <v>4.1231056256176594E-3</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1187,7 +1187,7 @@
         <v>9.32</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13">
         <v>2.5000000000000001E-2</v>
@@ -1202,16 +1202,16 @@
         <v>4.1231056256176594E-3</v>
       </c>
       <c r="N13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1240,7 +1240,7 @@
         <v>9.36</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14">
         <v>4.2999999999999997E-2</v>
@@ -1255,16 +1255,16 @@
         <v>4.5825756949558379E-3</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1293,7 +1293,7 @@
         <v>9.4</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15">
         <v>5.8999999999999997E-2</v>
@@ -1308,16 +1308,16 @@
         <v>8.485281374238568E-3</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1346,7 +1346,7 @@
         <v>9.4600000000000009</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16">
         <v>5.6000000000000001E-2</v>
@@ -1361,16 +1361,16 @@
         <v>1.2369316876852979E-2</v>
       </c>
       <c r="N16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1399,7 +1399,7 @@
         <v>25.66</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17">
         <v>4.2000000000000003E-2</v>
@@ -1414,16 +1414,16 @@
         <v>8.485281374238568E-3</v>
       </c>
       <c r="N17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1452,7 +1452,7 @@
         <v>25.9</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18">
         <v>2E-3</v>
@@ -1467,16 +1467,16 @@
         <v>8.2462112512353188E-3</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1505,7 +1505,7 @@
         <v>26.29</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19">
         <v>3.9E-2</v>
@@ -1520,16 +1520,16 @@
         <v>1.1090536506409416E-2</v>
       </c>
       <c r="N19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1558,7 +1558,7 @@
         <v>26.77</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20">
         <v>0.06</v>
@@ -1573,16 +1573,16 @@
         <v>1.6248076809271927E-2</v>
       </c>
       <c r="N20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1611,7 +1611,7 @@
         <v>27.7</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21">
         <v>2.4E-2</v>
@@ -1626,16 +1626,16 @@
         <v>2.0124611797498103E-2</v>
       </c>
       <c r="N21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
